--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$63</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="519">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T12:05:31+00:00</t>
+    <t>2025-10-15T14:23:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -689,6 +689,226 @@
     <t>116680003 |Is a|</t>
   </si>
   <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://example.com/silph</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>collision-type</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Collision type</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Observation.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
     <t>Observation.subject</t>
   </si>
   <si>
@@ -906,6 +1126,9 @@
     <t>valueCodeableConcept</t>
   </si>
   <si>
+    <t>https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/ValueSet/vs-collision-category</t>
+  </si>
+  <si>
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
@@ -1146,29 +1369,7 @@
     <t>Observation.referenceRange.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Observation.referenceRange.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -1761,7 +1962,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP52"/>
+  <dimension ref="A1:AP63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1795,10 +1996,10 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="47.7421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="65.76953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
@@ -3747,7 +3948,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>216</v>
       </c>
@@ -3760,19 +3961,19 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>94</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>217</v>
@@ -3783,12 +3984,8 @@
       <c r="M17" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="N17" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>221</v>
-      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>83</v>
       </c>
@@ -3836,7 +4033,7 @@
         <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -3848,22 +4045,22 @@
         <v>83</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>222</v>
+        <v>83</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>223</v>
+        <v>83</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>83</v>
@@ -3871,14 +4068,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3894,19 +4091,19 @@
         <v>83</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>228</v>
+        <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>230</v>
+        <v>143</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3944,19 +4141,19 @@
         <v>83</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>83</v>
+        <v>224</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -3968,7 +4165,7 @@
         <v>83</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>83</v>
@@ -3977,38 +4174,38 @@
         <v>83</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>212</v>
+        <v>83</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>233</v>
+        <v>83</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>94</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>83</v>
@@ -4017,19 +4214,19 @@
         <v>95</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>83</v>
@@ -4078,13 +4275,13 @@
         <v>83</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>83</v>
@@ -4093,34 +4290,34 @@
         <v>106</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>239</v>
+        <v>83</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>242</v>
+        <v>83</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>244</v>
+        <v>83</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4130,29 +4327,25 @@
         <v>94</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>83</v>
       </c>
@@ -4200,7 +4393,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4212,22 +4405,22 @@
         <v>83</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>250</v>
+        <v>83</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>251</v>
+        <v>83</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>253</v>
+        <v>83</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>83</v>
@@ -4235,21 +4428,21 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>83</v>
@@ -4258,19 +4451,19 @@
         <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>255</v>
+        <v>140</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>256</v>
+        <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>258</v>
+        <v>143</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4308,31 +4501,31 @@
         <v>83</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>83</v>
+        <v>224</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>83</v>
@@ -4341,13 +4534,13 @@
         <v>83</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>259</v>
+        <v>83</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>261</v>
+        <v>83</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>83</v>
@@ -4355,10 +4548,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4369,7 +4562,7 @@
         <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>83</v>
@@ -4381,17 +4574,19 @@
         <v>95</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>263</v>
+        <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O22" t="s" s="2">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>83</v>
@@ -4401,7 +4596,7 @@
         <v>83</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>83</v>
+        <v>244</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>83</v>
@@ -4440,13 +4635,13 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>83</v>
@@ -4455,19 +4650,19 @@
         <v>106</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>267</v>
+        <v>83</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>270</v>
+        <v>83</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>83</v>
@@ -4475,10 +4670,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4486,7 +4681,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>94</v>
@@ -4501,20 +4696,18 @@
         <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>83</v>
       </c>
@@ -4550,17 +4743,19 @@
         <v>83</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AC23" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>277</v>
+        <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4569,7 +4764,7 @@
         <v>94</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>278</v>
+        <v>83</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>106</v>
@@ -4578,43 +4773,41 @@
         <v>83</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>279</v>
+        <v>83</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>282</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>94</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>83</v>
@@ -4623,19 +4816,17 @@
         <v>95</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>192</v>
+        <v>114</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
@@ -4645,7 +4836,7 @@
         <v>83</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>83</v>
+        <v>259</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>83</v>
@@ -4684,7 +4875,7 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4693,7 +4884,7 @@
         <v>94</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>278</v>
+        <v>83</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>106</v>
@@ -4702,27 +4893,27 @@
         <v>83</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>279</v>
+        <v>83</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>282</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4742,22 +4933,20 @@
         <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>83</v>
@@ -4767,7 +4956,7 @@
         <v>83</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>83</v>
+        <v>267</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>83</v>
@@ -4782,13 +4971,13 @@
         <v>83</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>290</v>
+        <v>83</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>291</v>
+        <v>83</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>292</v>
+        <v>83</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>83</v>
@@ -4806,7 +4995,7 @@
         <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -4815,7 +5004,7 @@
         <v>94</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>293</v>
+        <v>83</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>106</v>
@@ -4827,10 +5016,10 @@
         <v>83</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>137</v>
+        <v>269</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>83</v>
@@ -4841,21 +5030,21 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>296</v>
+        <v>83</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>83</v>
@@ -4864,22 +5053,22 @@
         <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
@@ -4904,13 +5093,13 @@
         <v>83</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>290</v>
+        <v>83</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>301</v>
+        <v>83</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>302</v>
+        <v>83</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>83</v>
@@ -4928,13 +5117,13 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>83</v>
@@ -4946,27 +5135,27 @@
         <v>83</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>303</v>
+        <v>83</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>306</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4977,7 +5166,7 @@
         <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>83</v>
@@ -4986,22 +5175,22 @@
         <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>308</v>
+        <v>217</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>83</v>
@@ -5050,13 +5239,13 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>83</v>
@@ -5071,10 +5260,10 @@
         <v>83</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>83</v>
@@ -5083,12 +5272,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5096,33 +5285,35 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>94</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>192</v>
+        <v>289</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>83</v>
       </c>
@@ -5146,13 +5337,13 @@
         <v>83</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>319</v>
+        <v>83</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>320</v>
+        <v>83</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>83</v>
@@ -5170,7 +5361,7 @@
         <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5185,30 +5376,30 @@
         <v>106</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>83</v>
+        <v>294</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>321</v>
+        <v>83</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>83</v>
+        <v>297</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>324</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5219,7 +5410,7 @@
         <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>83</v>
@@ -5228,23 +5419,21 @@
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>192</v>
+        <v>299</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>83</v>
       </c>
@@ -5268,13 +5457,13 @@
         <v>83</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>330</v>
+        <v>83</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>331</v>
+        <v>83</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>83</v>
@@ -5292,13 +5481,13 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>83</v>
@@ -5313,28 +5502,28 @@
         <v>83</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>332</v>
+        <v>212</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>83</v>
+        <v>297</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>83</v>
+        <v>305</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5344,27 +5533,29 @@
         <v>94</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>83</v>
       </c>
@@ -5412,7 +5603,7 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5427,34 +5618,34 @@
         <v>106</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>83</v>
+        <v>311</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>339</v>
+        <v>83</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>83</v>
+        <v>314</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>342</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>83</v>
+        <v>316</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5464,27 +5655,29 @@
         <v>94</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>83</v>
       </c>
@@ -5532,7 +5725,7 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5547,30 +5740,30 @@
         <v>106</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>348</v>
+        <v>83</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>83</v>
+        <v>325</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>351</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5581,7 +5774,7 @@
         <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>83</v>
@@ -5590,23 +5783,21 @@
         <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>83</v>
       </c>
@@ -5654,19 +5845,19 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>358</v>
+        <v>106</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>83</v>
@@ -5675,13 +5866,13 @@
         <v>83</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>83</v>
+        <v>333</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>83</v>
@@ -5689,10 +5880,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5703,7 +5894,7 @@
         <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>83</v>
@@ -5712,19 +5903,21 @@
         <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>83</v>
       </c>
@@ -5772,34 +5965,34 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>83</v>
+        <v>339</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>83</v>
+        <v>342</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>83</v>
@@ -5807,21 +6000,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>83</v>
@@ -5830,21 +6023,23 @@
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>141</v>
+        <v>344</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>83</v>
       </c>
@@ -5880,92 +6075,92 @@
         <v>83</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="AC34" s="2"/>
       <c r="AD34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>83</v>
+        <v>349</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>83</v>
+        <v>350</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>83</v>
+        <v>351</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>83</v>
+        <v>352</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>83</v>
+        <v>354</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="D35" t="s" s="2">
-        <v>371</v>
+        <v>83</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>143</v>
+        <v>346</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>149</v>
+        <v>347</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>83</v>
@@ -5990,13 +6185,11 @@
         <v>83</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>83</v>
+        <v>357</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>83</v>
@@ -6014,45 +6207,45 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>374</v>
+        <v>343</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>83</v>
+        <v>350</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>83</v>
+        <v>351</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>83</v>
+        <v>352</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>137</v>
+        <v>353</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>83</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6075,16 +6268,20 @@
         <v>83</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>376</v>
+        <v>192</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
       </c>
@@ -6108,13 +6305,13 @@
         <v>83</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>83</v>
+        <v>363</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>83</v>
+        <v>364</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>83</v>
+        <v>365</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>83</v>
@@ -6132,7 +6329,7 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6141,7 +6338,7 @@
         <v>94</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>106</v>
@@ -6153,10 +6350,10 @@
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>380</v>
+        <v>137</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
@@ -6167,21 +6364,21 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>83</v>
@@ -6193,16 +6390,20 @@
         <v>83</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>376</v>
+        <v>192</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>83</v>
       </c>
@@ -6226,13 +6427,13 @@
         <v>83</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>83</v>
+        <v>363</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>83</v>
+        <v>374</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>83</v>
+        <v>375</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>83</v>
@@ -6250,16 +6451,16 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>379</v>
+        <v>83</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>106</v>
@@ -6268,27 +6469,27 @@
         <v>83</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>83</v>
+        <v>376</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>83</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6299,7 +6500,7 @@
         <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>83</v>
@@ -6311,19 +6512,19 @@
         <v>83</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>192</v>
+        <v>381</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
@@ -6348,13 +6549,13 @@
         <v>83</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>391</v>
+        <v>83</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>392</v>
+        <v>83</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>83</v>
@@ -6372,13 +6573,13 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>83</v>
@@ -6390,13 +6591,13 @@
         <v>83</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>393</v>
+        <v>83</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>305</v>
+        <v>387</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
@@ -6407,10 +6608,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6421,7 +6622,7 @@
         <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>83</v>
@@ -6436,17 +6637,15 @@
         <v>192</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>83</v>
       </c>
@@ -6473,10 +6672,10 @@
         <v>207</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>83</v>
@@ -6494,13 +6693,13 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>83</v>
@@ -6512,27 +6711,27 @@
         <v>83</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>305</v>
+        <v>396</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>83</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6555,17 +6754,19 @@
         <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>403</v>
+        <v>192</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>83</v>
@@ -6590,13 +6791,13 @@
         <v>83</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>83</v>
+        <v>403</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>83</v>
+        <v>404</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>83</v>
@@ -6614,7 +6815,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6635,10 +6836,10 @@
         <v>83</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>83</v>
+        <v>405</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>83</v>
@@ -6649,10 +6850,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6675,7 +6876,7 @@
         <v>83</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>409</v>
@@ -6683,7 +6884,9 @@
       <c r="M41" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="N41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>83</v>
@@ -6732,7 +6935,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -6750,27 +6953,27 @@
         <v>83</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>83</v>
+        <v>412</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>83</v>
+        <v>415</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6781,7 +6984,7 @@
         <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>83</v>
@@ -6790,19 +6993,19 @@
         <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6852,13 +7055,13 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>83</v>
@@ -6870,27 +7073,27 @@
         <v>83</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>83</v>
+        <v>421</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>83</v>
+        <v>424</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6910,21 +7113,23 @@
         <v>83</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>83</v>
       </c>
@@ -6972,7 +7177,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -6984,7 +7189,7 @@
         <v>83</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>106</v>
+        <v>431</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>83</v>
@@ -6993,10 +7198,10 @@
         <v>83</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7007,10 +7212,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7021,7 +7226,7 @@
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>83</v>
@@ -7030,23 +7235,19 @@
         <v>83</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>353</v>
+        <v>217</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>426</v>
+        <v>218</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>83</v>
       </c>
@@ -7094,19 +7295,19 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>425</v>
+        <v>220</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>83</v>
@@ -7115,10 +7316,10 @@
         <v>83</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>430</v>
+        <v>83</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>431</v>
+        <v>221</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
@@ -7129,21 +7330,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>83</v>
@@ -7155,15 +7356,17 @@
         <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>362</v>
+        <v>140</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>363</v>
+        <v>141</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>83</v>
@@ -7212,19 +7415,19 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>365</v>
+        <v>227</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>83</v>
@@ -7236,7 +7439,7 @@
         <v>83</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>366</v>
+        <v>221</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>83</v>
@@ -7247,14 +7450,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>139</v>
+        <v>437</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7267,24 +7470,26 @@
         <v>83</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>141</v>
+        <v>438</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>368</v>
+        <v>439</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>83</v>
       </c>
@@ -7332,7 +7537,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>369</v>
+        <v>440</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7356,7 +7561,7 @@
         <v>83</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>366</v>
+        <v>137</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
@@ -7367,46 +7572,42 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>371</v>
+        <v>83</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>140</v>
+        <v>442</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>372</v>
+        <v>443</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>83</v>
       </c>
@@ -7454,19 +7655,19 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>374</v>
+        <v>441</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>83</v>
+        <v>445</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>83</v>
@@ -7475,10 +7676,10 @@
         <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>83</v>
+        <v>446</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>137</v>
+        <v>447</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
@@ -7489,10 +7690,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7500,7 +7701,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>94</v>
@@ -7512,23 +7713,19 @@
         <v>83</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>192</v>
+        <v>442</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>83</v>
       </c>
@@ -7552,13 +7749,13 @@
         <v>83</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>209</v>
+        <v>83</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>83</v>
@@ -7576,16 +7773,16 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>83</v>
+        <v>445</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>106</v>
@@ -7594,16 +7791,16 @@
         <v>83</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>439</v>
+        <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>212</v>
+        <v>446</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>213</v>
+        <v>451</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>83</v>
@@ -7611,10 +7808,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7634,22 +7831,22 @@
         <v>83</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>441</v>
+        <v>192</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>273</v>
+        <v>454</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>275</v>
+        <v>456</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
@@ -7674,13 +7871,13 @@
         <v>83</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>83</v>
+        <v>457</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>83</v>
+        <v>458</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>83</v>
@@ -7698,7 +7895,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7716,27 +7913,27 @@
         <v>83</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>280</v>
+        <v>460</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>281</v>
+        <v>378</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>282</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7747,7 +7944,7 @@
         <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>83</v>
@@ -7762,16 +7959,16 @@
         <v>192</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>289</v>
+        <v>465</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
@@ -7796,13 +7993,13 @@
         <v>83</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>290</v>
+        <v>207</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>291</v>
+        <v>466</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>292</v>
+        <v>467</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>83</v>
@@ -7820,16 +8017,16 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>293</v>
+        <v>83</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>106</v>
@@ -7838,13 +8035,13 @@
         <v>83</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>83</v>
+        <v>459</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>137</v>
+        <v>460</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>294</v>
+        <v>378</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -7855,21 +8052,21 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>296</v>
+        <v>83</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>83</v>
@@ -7881,19 +8078,17 @@
         <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>192</v>
+        <v>469</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>297</v>
+        <v>470</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>300</v>
+        <v>472</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>83</v>
@@ -7918,13 +8113,13 @@
         <v>83</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>290</v>
+        <v>83</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>301</v>
+        <v>83</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>302</v>
+        <v>83</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>83</v>
@@ -7942,13 +8137,13 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>83</v>
@@ -7960,27 +8155,27 @@
         <v>83</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>303</v>
+        <v>83</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>304</v>
+        <v>83</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>305</v>
+        <v>473</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>306</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7991,7 +8186,7 @@
         <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>83</v>
@@ -8003,20 +8198,16 @@
         <v>83</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>84</v>
+        <v>217</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>83</v>
       </c>
@@ -8064,13 +8255,13 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>83</v>
@@ -8085,20 +8276,1352 @@
         <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>359</v>
+        <v>446</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>360</v>
+        <v>477</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP52" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP53" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP54" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP55" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP56" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP57" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP58" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AP59" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="P61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP61" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP62" t="s" s="2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP63" t="s" s="2">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP52">
+  <autoFilter ref="A1:AP63">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8108,7 +9631,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI51">
+  <conditionalFormatting sqref="A2:AI62">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:23:03+00:00</t>
+    <t>2025-10-15T15:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:54:27+00:00</t>
+    <t>2025-10-15T16:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T16:03:41+00:00</t>
+    <t>2025-10-15T17:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -776,7 +776,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://example.com/silph</t>
+    <t>http://snomed.info/sct</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:01:16+00:00</t>
+    <t>2025-10-15T17:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:40:06+00:00</t>
+    <t>2025-10-15T18:08:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:08:27+00:00</t>
+    <t>2025-10-15T18:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:32:50+00:00</t>
+    <t>2025-10-15T18:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:40:48+00:00</t>
+    <t>2025-10-16T02:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T02:41:49+00:00</t>
+    <t>2025-10-16T07:04:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:04:25+00:00</t>
+    <t>2025-10-16T07:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:32:50+00:00</t>
+    <t>2025-10-16T10:13:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T10:13:43+00:00</t>
+    <t>2025-10-16T12:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T12:46:03+00:00</t>
+    <t>2025-10-18T06:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T02:11:18+00:00</t>
+    <t>2025-10-22T06:37:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T06:37:55+00:00</t>
+    <t>2025-10-22T07:39:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Observation - Collision Type</t>
+    <t>RS Observation - Collision Type</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T07:39:41+00:00</t>
+    <t>2025-10-24T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>RS Observation - Collision Type</t>
+    <t>Road Safety Observation - Collision Type</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T06:46:00+00:00</t>
+    <t>2025-10-24T16:06:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T16:06:58+00:00</t>
+    <t>2025-10-25T04:52:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-25T04:52:41+00:00</t>
+    <t>2025-10-26T07:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Observation - Collision Type</t>
+    <t>RS Observation - Collision Type</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-26T07:34:36+00:00</t>
+    <t>2025-10-27T01:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:54:31+00:00</t>
+    <t>2025-10-27T01:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$56</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="476">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:56:04+00:00</t>
+    <t>2025-10-28T15:04:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -746,6 +746,13 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://www.roadsafetyph.doh.gov.ph/CodeSystem"/&gt;
+  &lt;code value="COLLISIONTYPE"/&gt;
+  &lt;display value="Collision type"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
     <t>CodeableConcept.coding</t>
   </si>
   <si>
@@ -753,136 +760,6 @@
   </si>
   <si>
     <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>collision-type</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Collision type</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
   </si>
   <si>
     <t>Observation.code.text</t>
@@ -1959,7 +1836,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP63"/>
+  <dimension ref="A1:AP56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4233,7 +4110,7 @@
         <v>83</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>83</v>
+        <v>234</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>83</v>
@@ -4272,7 +4149,7 @@
         <v>83</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4293,10 +4170,10 @@
         <v>83</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>83</v>
@@ -4307,10 +4184,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4330,19 +4207,23 @@
         <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>83</v>
       </c>
@@ -4390,7 +4271,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4402,7 +4283,7 @@
         <v>83</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>83</v>
@@ -4411,10 +4292,10 @@
         <v>83</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>83</v>
+        <v>244</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>83</v>
@@ -4423,46 +4304,48 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>140</v>
+        <v>247</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>141</v>
+        <v>248</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>83</v>
       </c>
@@ -4498,46 +4381,46 @@
         <v>83</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>83</v>
+        <v>253</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>83</v>
+        <v>255</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>83</v>
@@ -4545,10 +4428,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4559,7 +4442,7 @@
         <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>83</v>
@@ -4571,20 +4454,18 @@
         <v>95</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>108</v>
+        <v>257</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>83</v>
       </c>
@@ -4593,7 +4474,7 @@
         <v>83</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>244</v>
+        <v>83</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>83</v>
@@ -4632,13 +4513,13 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>83</v>
@@ -4653,28 +4534,28 @@
         <v>83</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>83</v>
+        <v>255</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>83</v>
+        <v>263</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4684,7 +4565,7 @@
         <v>94</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>83</v>
@@ -4693,18 +4574,20 @@
         <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>83</v>
       </c>
@@ -4752,7 +4635,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4767,34 +4650,34 @@
         <v>106</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>83</v>
+        <v>269</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>83</v>
+        <v>272</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>83</v>
+        <v>274</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4804,7 +4687,7 @@
         <v>94</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>83</v>
@@ -4813,17 +4696,19 @@
         <v>95</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>114</v>
+        <v>275</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
@@ -4833,7 +4718,7 @@
         <v>83</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>259</v>
+        <v>83</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>83</v>
@@ -4872,7 +4757,7 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4887,19 +4772,19 @@
         <v>106</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>83</v>
+        <v>280</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>83</v>
+        <v>283</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>83</v>
@@ -4907,10 +4792,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4933,18 +4818,18 @@
         <v>95</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>217</v>
+        <v>285</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>83</v>
       </c>
@@ -4953,7 +4838,7 @@
         <v>83</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>267</v>
+        <v>83</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>83</v>
@@ -4992,7 +4877,7 @@
         <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5013,13 +4898,13 @@
         <v>83</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>83</v>
+        <v>291</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>83</v>
@@ -5027,10 +4912,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5041,7 +4926,7 @@
         <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>83</v>
@@ -5053,19 +4938,17 @@
         <v>95</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
@@ -5114,13 +4997,13 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>83</v>
@@ -5129,19 +5012,19 @@
         <v>106</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>83</v>
+        <v>297</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>83</v>
+        <v>300</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>83</v>
@@ -5149,10 +5032,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5160,7 +5043,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>94</v>
@@ -5175,19 +5058,19 @@
         <v>95</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>83</v>
@@ -5224,19 +5107,17 @@
         <v>83</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5245,7 +5126,7 @@
         <v>94</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>83</v>
+        <v>308</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>106</v>
@@ -5254,29 +5135,31 @@
         <v>83</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>83</v>
+        <v>309</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>83</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="D28" t="s" s="2">
         <v>83</v>
       </c>
@@ -5297,19 +5180,19 @@
         <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>289</v>
+        <v>192</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>83</v>
@@ -5358,7 +5241,7 @@
         <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5367,36 +5250,36 @@
         <v>94</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>83</v>
+        <v>308</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>294</v>
+        <v>83</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>83</v>
+        <v>309</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>297</v>
+        <v>83</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>83</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5407,7 +5290,7 @@
         <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>83</v>
@@ -5416,21 +5299,23 @@
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>299</v>
+        <v>192</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>83</v>
       </c>
@@ -5454,13 +5339,13 @@
         <v>83</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>83</v>
+        <v>320</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>83</v>
+        <v>321</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>83</v>
@@ -5478,16 +5363,16 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>83</v>
+        <v>323</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>106</v>
@@ -5499,59 +5384,59 @@
         <v>83</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>297</v>
+        <v>83</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>306</v>
+        <v>192</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>83</v>
@@ -5576,13 +5461,13 @@
         <v>83</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>83</v>
+        <v>320</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>83</v>
+        <v>331</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>83</v>
+        <v>332</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>83</v>
@@ -5600,13 +5485,13 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>83</v>
@@ -5615,65 +5500,65 @@
         <v>106</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>311</v>
+        <v>83</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>83</v>
+        <v>333</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>314</v>
+        <v>83</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>83</v>
+        <v>336</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>316</v>
+        <v>83</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>83</v>
@@ -5722,13 +5607,13 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>83</v>
@@ -5737,19 +5622,19 @@
         <v>106</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>322</v>
+        <v>83</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>325</v>
+        <v>83</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>83</v>
@@ -5757,10 +5642,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5780,19 +5665,19 @@
         <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>327</v>
+        <v>192</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5818,13 +5703,13 @@
         <v>83</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>83</v>
+        <v>349</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>83</v>
+        <v>350</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>83</v>
@@ -5842,7 +5727,7 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5860,27 +5745,27 @@
         <v>83</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>83</v>
+        <v>351</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>333</v>
+        <v>83</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>83</v>
+        <v>354</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5891,7 +5776,7 @@
         <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>83</v>
@@ -5900,20 +5785,22 @@
         <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>335</v>
+        <v>192</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>83</v>
@@ -5938,13 +5825,13 @@
         <v>83</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>83</v>
+        <v>360</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>83</v>
+        <v>361</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>83</v>
@@ -5962,13 +5849,13 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>83</v>
@@ -5977,19 +5864,19 @@
         <v>106</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>339</v>
+        <v>83</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>342</v>
+        <v>83</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>83</v>
@@ -5997,10 +5884,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6008,7 +5895,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>94</v>
@@ -6020,23 +5907,21 @@
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>192</v>
+        <v>365</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>83</v>
       </c>
@@ -6072,17 +5957,19 @@
         <v>83</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AC34" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>349</v>
+        <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6091,7 +5978,7 @@
         <v>94</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>350</v>
+        <v>83</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>106</v>
@@ -6100,65 +5987,61 @@
         <v>83</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>354</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>94</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>192</v>
+        <v>374</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>83</v>
       </c>
@@ -6206,7 +6089,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>343</v>
+        <v>373</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6215,7 +6098,7 @@
         <v>94</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>350</v>
+        <v>83</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>106</v>
@@ -6224,27 +6107,27 @@
         <v>83</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>353</v>
+        <v>380</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>354</v>
+        <v>381</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6255,7 +6138,7 @@
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>83</v>
@@ -6267,19 +6150,19 @@
         <v>83</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>192</v>
+        <v>383</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
@@ -6304,13 +6187,13 @@
         <v>83</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>362</v>
+        <v>83</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>363</v>
+        <v>83</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>364</v>
+        <v>83</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>83</v>
@@ -6328,19 +6211,19 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>365</v>
+        <v>83</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>106</v>
+        <v>388</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>83</v>
@@ -6349,10 +6232,10 @@
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>137</v>
+        <v>389</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
@@ -6363,21 +6246,21 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>368</v>
+        <v>83</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>83</v>
@@ -6389,20 +6272,16 @@
         <v>83</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>369</v>
+        <v>218</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>83</v>
       </c>
@@ -6426,13 +6305,13 @@
         <v>83</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>362</v>
+        <v>83</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>373</v>
+        <v>83</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>374</v>
+        <v>83</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>83</v>
@@ -6450,49 +6329,49 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>367</v>
+        <v>220</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>375</v>
+        <v>83</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>376</v>
+        <v>83</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>377</v>
+        <v>221</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>378</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6511,20 +6390,18 @@
         <v>83</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>380</v>
+        <v>140</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>381</v>
+        <v>141</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>382</v>
+        <v>223</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>83</v>
       </c>
@@ -6572,7 +6449,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>379</v>
+        <v>227</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6584,7 +6461,7 @@
         <v>83</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>83</v>
@@ -6593,10 +6470,10 @@
         <v>83</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>385</v>
+        <v>83</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>386</v>
+        <v>221</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
@@ -6607,44 +6484,46 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>83</v>
+        <v>394</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>83</v>
       </c>
@@ -6668,13 +6547,13 @@
         <v>83</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>391</v>
+        <v>83</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>392</v>
+        <v>83</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>83</v>
@@ -6692,45 +6571,45 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>393</v>
+        <v>83</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>394</v>
+        <v>83</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>395</v>
+        <v>137</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>396</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6753,20 +6632,16 @@
         <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>192</v>
+        <v>399</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O40" t="s" s="2">
         <v>401</v>
       </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>83</v>
       </c>
@@ -6790,13 +6665,13 @@
         <v>83</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>402</v>
+        <v>83</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>403</v>
+        <v>83</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>83</v>
@@ -6814,7 +6689,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6823,7 +6698,7 @@
         <v>94</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>83</v>
+        <v>402</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>106</v>
@@ -6835,10 +6710,10 @@
         <v>83</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>83</v>
@@ -6849,10 +6724,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6875,17 +6750,15 @@
         <v>83</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>410</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>83</v>
@@ -6934,7 +6807,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -6943,7 +6816,7 @@
         <v>94</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>83</v>
+        <v>402</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>106</v>
@@ -6952,27 +6825,27 @@
         <v>83</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>411</v>
+        <v>83</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>414</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6995,18 +6868,20 @@
         <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>416</v>
+        <v>192</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>83</v>
       </c>
@@ -7030,13 +6905,13 @@
         <v>83</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>83</v>
+        <v>414</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>83</v>
+        <v>415</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>83</v>
@@ -7054,7 +6929,7 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -7072,27 +6947,27 @@
         <v>83</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>422</v>
+        <v>335</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>423</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7115,19 +6990,19 @@
         <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>425</v>
+        <v>192</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>83</v>
@@ -7152,13 +7027,13 @@
         <v>83</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>83</v>
+        <v>423</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>83</v>
+        <v>424</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>83</v>
@@ -7176,7 +7051,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7188,19 +7063,19 @@
         <v>83</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>430</v>
+        <v>106</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>83</v>
+        <v>416</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>432</v>
+        <v>335</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7211,10 +7086,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7237,16 +7112,18 @@
         <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>217</v>
+        <v>426</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>218</v>
+        <v>427</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>219</v>
+        <v>428</v>
       </c>
       <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>83</v>
       </c>
@@ -7294,7 +7171,7 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>220</v>
+        <v>425</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7306,7 +7183,7 @@
         <v>83</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>83</v>
@@ -7318,7 +7195,7 @@
         <v>83</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>221</v>
+        <v>430</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
@@ -7329,21 +7206,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>83</v>
@@ -7355,17 +7232,15 @@
         <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>141</v>
+        <v>432</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>83</v>
@@ -7414,19 +7289,19 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>227</v>
+        <v>431</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>83</v>
@@ -7435,10 +7310,10 @@
         <v>83</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>83</v>
+        <v>403</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>221</v>
+        <v>434</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>83</v>
@@ -7456,7 +7331,7 @@
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>436</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7469,13 +7344,13 @@
         <v>83</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>140</v>
+        <v>436</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>437</v>
@@ -7484,11 +7359,9 @@
         <v>438</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>83</v>
       </c>
@@ -7536,7 +7409,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7548,7 +7421,7 @@
         <v>83</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>83</v>
@@ -7557,10 +7430,10 @@
         <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>83</v>
+        <v>440</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>137</v>
+        <v>441</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
@@ -7571,10 +7444,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7585,7 +7458,7 @@
         <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>83</v>
@@ -7594,18 +7467,20 @@
         <v>83</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>83</v>
@@ -7654,16 +7529,16 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>444</v>
+        <v>83</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>106</v>
@@ -7675,10 +7550,10 @@
         <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
@@ -7689,10 +7564,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7703,7 +7578,7 @@
         <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>83</v>
@@ -7712,19 +7587,23 @@
         <v>83</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>441</v>
+        <v>383</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
       </c>
@@ -7772,16 +7651,16 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>444</v>
+        <v>83</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>106</v>
@@ -7793,10 +7672,10 @@
         <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
@@ -7807,10 +7686,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7833,20 +7712,16 @@
         <v>83</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>452</v>
+        <v>218</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>83</v>
       </c>
@@ -7870,13 +7745,13 @@
         <v>83</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>456</v>
+        <v>83</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>457</v>
+        <v>83</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>83</v>
@@ -7894,7 +7769,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>451</v>
+        <v>220</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7906,19 +7781,19 @@
         <v>83</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>458</v>
+        <v>83</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>459</v>
+        <v>83</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>377</v>
+        <v>221</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
@@ -7929,14 +7804,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7955,20 +7830,18 @@
         <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>461</v>
+        <v>141</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>462</v>
+        <v>223</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>83</v>
       </c>
@@ -7992,13 +7865,13 @@
         <v>83</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>465</v>
+        <v>83</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>466</v>
+        <v>83</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>83</v>
@@ -8016,7 +7889,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>460</v>
+        <v>227</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8028,19 +7901,19 @@
         <v>83</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>458</v>
+        <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>459</v>
+        <v>83</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>377</v>
+        <v>221</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -8051,43 +7924,45 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>83</v>
+        <v>394</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>468</v>
+        <v>140</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>469</v>
+        <v>395</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O51" t="s" s="2">
-        <v>471</v>
+        <v>149</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>83</v>
@@ -8136,19 +8011,19 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>467</v>
+        <v>397</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>83</v>
@@ -8160,7 +8035,7 @@
         <v>83</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>472</v>
+        <v>137</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>83</v>
@@ -8171,10 +8046,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8182,7 +8057,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>94</v>
@@ -8194,19 +8069,23 @@
         <v>83</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>83</v>
       </c>
@@ -8230,13 +8109,13 @@
         <v>83</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>83</v>
@@ -8254,10 +8133,10 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>94</v>
@@ -8272,16 +8151,16 @@
         <v>83</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>445</v>
+        <v>212</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>476</v>
+        <v>213</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>83</v>
@@ -8289,10 +8168,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8303,7 +8182,7 @@
         <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>83</v>
@@ -8315,18 +8194,20 @@
         <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>480</v>
+        <v>303</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>83</v>
       </c>
@@ -8374,13 +8255,13 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>83</v>
@@ -8392,27 +8273,27 @@
         <v>83</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>83</v>
+        <v>467</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>482</v>
+        <v>310</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>483</v>
+        <v>311</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>83</v>
+        <v>312</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8423,7 +8304,7 @@
         <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>83</v>
@@ -8432,21 +8313,23 @@
         <v>83</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>485</v>
+        <v>192</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
       </c>
@@ -8470,13 +8353,13 @@
         <v>83</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>83</v>
+        <v>320</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>83</v>
+        <v>321</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>83</v>
@@ -8494,16 +8377,16 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>83</v>
+        <v>323</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>106</v>
@@ -8515,10 +8398,10 @@
         <v>83</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>482</v>
+        <v>137</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>489</v>
+        <v>324</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>83</v>
@@ -8529,14 +8412,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>83</v>
+        <v>326</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8552,22 +8435,22 @@
         <v>83</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>425</v>
+        <v>192</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>491</v>
+        <v>327</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>492</v>
+        <v>328</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>493</v>
+        <v>329</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>494</v>
+        <v>330</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -8592,13 +8475,13 @@
         <v>83</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>83</v>
+        <v>320</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>83</v>
+        <v>331</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>83</v>
+        <v>332</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>83</v>
@@ -8616,7 +8499,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8634,27 +8517,27 @@
         <v>83</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>83</v>
+        <v>333</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>495</v>
+        <v>334</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>496</v>
+        <v>335</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>83</v>
+        <v>336</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8665,7 +8548,7 @@
         <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>83</v>
@@ -8677,16 +8560,20 @@
         <v>83</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>217</v>
+        <v>84</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>218</v>
+        <v>474</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>83</v>
       </c>
@@ -8734,19 +8621,19 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>220</v>
+        <v>473</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>83</v>
@@ -8755,872 +8642,20 @@
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>83</v>
+        <v>389</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>221</v>
+        <v>390</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O57" s="2"/>
-      <c r="P57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP57" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="P58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="P59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="P60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="P61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" hidden="true">
-      <c r="A62" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="P62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="P63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP63" t="s" s="2">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP63">
+  <autoFilter ref="A1:AP56">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9630,7 +8665,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI62">
+  <conditionalFormatting sqref="A2:AI55">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:04:35+00:00</t>
+    <t>2025-10-28T15:40:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:40:43+00:00</t>
+    <t>2025-10-28T15:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:55:35+00:00</t>
+    <t>2025-10-28T23:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T23:57:44+00:00</t>
+    <t>2025-10-29T00:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:11:30+00:00</t>
+    <t>2025-10-29T00:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -748,6 +748,7 @@
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="http://www.roadsafetyph.doh.gov.ph/CodeSystem"/&gt;
+  &lt;version value="1"/&gt;
   &lt;code value="COLLISIONTYPE"/&gt;
   &lt;display value="Collision type"/&gt;
 &lt;/valueCoding&gt;</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:33:44+00:00</t>
+    <t>2025-10-29T01:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T01:19:27+00:00</t>
+    <t>2025-10-29T02:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:00:22+00:00</t>
+    <t>2025-10-29T02:25:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:25:56+00:00</t>
+    <t>2025-10-29T03:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T03:19:57+00:00</t>
+    <t>2025-10-29T04:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T04:24:57+00:00</t>
+    <t>2025-10-29T05:09:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:09:17+00:00</t>
+    <t>2025-10-29T05:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:13:56+00:00</t>
+    <t>2025-10-29T05:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:50:12+00:00</t>
+    <t>2025-10-29T13:28:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T13:28:47+00:00</t>
+    <t>2025-10-29T15:51:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:51:20+00:00</t>
+    <t>2025-10-30T01:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T01:53:15+00:00</t>
+    <t>2025-10-30T02:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T02:40:54+00:00</t>
+    <t>2025-10-30T03:27:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T03:27:09+00:00</t>
+    <t>2025-10-30T05:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T05:39:55+00:00</t>
+    <t>2025-10-31T16:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T16:32:57+00:00</t>
+    <t>2025-11-01T02:32:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T02:32:07+00:00</t>
+    <t>2025-11-01T03:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:00:46+00:00</t>
+    <t>2025-11-01T03:08:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:08:11+00:00</t>
+    <t>2025-11-01T11:24:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T11:24:55+00:00</t>
+    <t>2025-11-03T06:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T06:02:43+00:00</t>
+    <t>2025-11-03T09:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T09:29:05+00:00</t>
+    <t>2025-11-04T05:19:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T05:19:01+00:00</t>
+    <t>2025-11-05T05:21:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T05:21:38+00:00</t>
+    <t>2025-11-06T11:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T11:55:20+00:00</t>
+    <t>2025-11-07T10:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T10:27:49+00:00</t>
+    <t>2025-11-08T13:50:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3701,7 +3701,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>201</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>94</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>83</v>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-08T13:50:02+00:00</t>
+    <t>2025-11-09T01:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T01:35:45+00:00</t>
+    <t>2025-11-09T06:04:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T06:04:07+00:00</t>
+    <t>2025-11-09T07:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T07:15:59+00:00</t>
+    <t>2025-11-09T10:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T10:56:11+00:00</t>
+    <t>2025-11-09T12:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:21:17+00:00</t>
+    <t>2025-11-09T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:30:11+00:00</t>
+    <t>2025-11-12T06:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:38:24+00:00</t>
+    <t>2025-11-12T06:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:39:32+00:00</t>
+    <t>2025-11-12T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:01:17+00:00</t>
+    <t>2025-11-13T05:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:16:01+00:00</t>
+    <t>2025-11-13T05:42:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:42:41+00:00</t>
+    <t>2025-11-13T06:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:09:51+00:00</t>
+    <t>2025-11-13T06:07:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:07:07+00:00</t>
+    <t>2025-11-14T06:33:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T06:33:14+00:00</t>
+    <t>2025-11-16T14:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-collision-type.xlsx
+++ b/StructureDefinition-rs-observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-16T14:11:53+00:00</t>
+    <t>2025-11-16T14:40:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
